--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu_Retrain.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu_Retrain.xlsx
@@ -505,16 +505,16 @@
         <v>14.31699359657089</v>
       </c>
       <c r="G2" t="n">
-        <v>184.7293853759766</v>
+        <v>149.5930786132812</v>
       </c>
       <c r="H2" t="n">
-        <v>41.3707275390625</v>
+        <v>56.33085632324219</v>
       </c>
       <c r="I2" t="n">
-        <v>905.944580078125</v>
+        <v>873.6610717773438</v>
       </c>
       <c r="J2" t="n">
-        <v>56.48122787475586</v>
+        <v>75.14371490478516</v>
       </c>
     </row>
     <row r="3">
@@ -537,16 +537,16 @@
         <v>15.27891067420843</v>
       </c>
       <c r="G3" t="n">
-        <v>247.3834838867188</v>
+        <v>176.5021209716797</v>
       </c>
       <c r="H3" t="n">
-        <v>39.33614349365234</v>
+        <v>70.55750274658203</v>
       </c>
       <c r="I3" t="n">
-        <v>911.4981079101562</v>
+        <v>882.9088745117188</v>
       </c>
       <c r="J3" t="n">
-        <v>57.9830436706543</v>
+        <v>81.98526763916016</v>
       </c>
     </row>
     <row r="4">
@@ -569,16 +569,16 @@
         <v>15.85974020072816</v>
       </c>
       <c r="G4" t="n">
-        <v>277.8482971191406</v>
+        <v>210.97509765625</v>
       </c>
       <c r="H4" t="n">
-        <v>48.96648025512695</v>
+        <v>104.9109344482422</v>
       </c>
       <c r="I4" t="n">
-        <v>908.0623168945312</v>
+        <v>892.2263793945312</v>
       </c>
       <c r="J4" t="n">
-        <v>59.43220901489258</v>
+        <v>76.70329284667969</v>
       </c>
     </row>
     <row r="5">
@@ -601,16 +601,16 @@
         <v>16.6254486072678</v>
       </c>
       <c r="G5" t="n">
-        <v>313.6586608886719</v>
+        <v>268.4399108886719</v>
       </c>
       <c r="H5" t="n">
-        <v>74.82668304443359</v>
+        <v>139.1605834960938</v>
       </c>
       <c r="I5" t="n">
-        <v>907.7572631835938</v>
+        <v>891.141357421875</v>
       </c>
       <c r="J5" t="n">
-        <v>60.88641738891602</v>
+        <v>82.31859588623047</v>
       </c>
     </row>
     <row r="6">
@@ -633,16 +633,16 @@
         <v>16.72168606967666</v>
       </c>
       <c r="G6" t="n">
-        <v>392.5104370117188</v>
+        <v>363.893798828125</v>
       </c>
       <c r="H6" t="n">
-        <v>128.1089019775391</v>
+        <v>173.5213470458984</v>
       </c>
       <c r="I6" t="n">
-        <v>902.2664794921875</v>
+        <v>888.6866455078125</v>
       </c>
       <c r="J6" t="n">
-        <v>71.06132507324219</v>
+        <v>79.56737518310547</v>
       </c>
     </row>
     <row r="7">
@@ -665,16 +665,16 @@
         <v>17.58023045110392</v>
       </c>
       <c r="G7" t="n">
-        <v>121.8420028686523</v>
+        <v>133.1073913574219</v>
       </c>
       <c r="H7" t="n">
-        <v>50.6003303527832</v>
+        <v>48.33377075195312</v>
       </c>
       <c r="I7" t="n">
-        <v>940.0188598632812</v>
+        <v>945.0126342773438</v>
       </c>
       <c r="J7" t="n">
-        <v>64.82344818115234</v>
+        <v>68.74794006347656</v>
       </c>
     </row>
     <row r="8">
@@ -697,16 +697,16 @@
         <v>18.57818076528054</v>
       </c>
       <c r="G8" t="n">
-        <v>137.0142517089844</v>
+        <v>145.4642944335938</v>
       </c>
       <c r="H8" t="n">
-        <v>46.13204574584961</v>
+        <v>48.9689826965332</v>
       </c>
       <c r="I8" t="n">
-        <v>933.9603881835938</v>
+        <v>923.2810668945312</v>
       </c>
       <c r="J8" t="n">
-        <v>62.06518173217773</v>
+        <v>67.59063720703125</v>
       </c>
     </row>
     <row r="9">
@@ -729,16 +729,16 @@
         <v>19.60838259075554</v>
       </c>
       <c r="G9" t="n">
-        <v>175.9832611083984</v>
+        <v>162.9749603271484</v>
       </c>
       <c r="H9" t="n">
-        <v>41.36308670043945</v>
+        <v>46.92147064208984</v>
       </c>
       <c r="I9" t="n">
-        <v>918.4484252929688</v>
+        <v>908.89990234375</v>
       </c>
       <c r="J9" t="n">
-        <v>58.32844543457031</v>
+        <v>66.92915344238281</v>
       </c>
     </row>
     <row r="10">
@@ -761,16 +761,16 @@
         <v>20.10500298210745</v>
       </c>
       <c r="G10" t="n">
-        <v>223.5105743408203</v>
+        <v>186.1508636474609</v>
       </c>
       <c r="H10" t="n">
-        <v>42.51457595825195</v>
+        <v>56.4958610534668</v>
       </c>
       <c r="I10" t="n">
-        <v>914.909912109375</v>
+        <v>904.6777954101562</v>
       </c>
       <c r="J10" t="n">
-        <v>59.97822570800781</v>
+        <v>72.54798889160156</v>
       </c>
     </row>
     <row r="11">
@@ -793,16 +793,16 @@
         <v>20.82282672295324</v>
       </c>
       <c r="G11" t="n">
-        <v>265.9206848144531</v>
+        <v>243.0450286865234</v>
       </c>
       <c r="H11" t="n">
-        <v>51.57017135620117</v>
+        <v>102.2559509277344</v>
       </c>
       <c r="I11" t="n">
-        <v>909.7991943359375</v>
+        <v>902.6644897460938</v>
       </c>
       <c r="J11" t="n">
-        <v>61.96220397949219</v>
+        <v>73.96546936035156</v>
       </c>
     </row>
     <row r="12">
@@ -825,16 +825,16 @@
         <v>21.05931589769223</v>
       </c>
       <c r="G12" t="n">
-        <v>336.5817565917969</v>
+        <v>347.84423828125</v>
       </c>
       <c r="H12" t="n">
-        <v>118.8640823364258</v>
+        <v>170.3254699707031</v>
       </c>
       <c r="I12" t="n">
-        <v>905.6054077148438</v>
+        <v>893.6311645507812</v>
       </c>
       <c r="J12" t="n">
-        <v>63.84582901000977</v>
+        <v>77.63058471679688</v>
       </c>
     </row>
     <row r="13">
@@ -857,16 +857,16 @@
         <v>21.38449445236935</v>
       </c>
       <c r="G13" t="n">
-        <v>524.4110717773438</v>
+        <v>509.7666015625</v>
       </c>
       <c r="H13" t="n">
-        <v>192.4583129882812</v>
+        <v>201.9098968505859</v>
       </c>
       <c r="I13" t="n">
-        <v>906.0449829101562</v>
+        <v>881.2866821289062</v>
       </c>
       <c r="J13" t="n">
-        <v>73.08760833740234</v>
+        <v>84.60145568847656</v>
       </c>
     </row>
     <row r="14">
@@ -889,16 +889,16 @@
         <v>19.79697020692051</v>
       </c>
       <c r="G14" t="n">
-        <v>128.0459136962891</v>
+        <v>135.0709533691406</v>
       </c>
       <c r="H14" t="n">
-        <v>50.6222038269043</v>
+        <v>50.45229721069336</v>
       </c>
       <c r="I14" t="n">
-        <v>741.4895629882812</v>
+        <v>687.2044677734375</v>
       </c>
       <c r="J14" t="n">
-        <v>180.6626586914062</v>
+        <v>200.2727203369141</v>
       </c>
     </row>
     <row r="15">
@@ -921,16 +921,16 @@
         <v>21.48203443327129</v>
       </c>
       <c r="G15" t="n">
-        <v>124.003662109375</v>
+        <v>135.4882659912109</v>
       </c>
       <c r="H15" t="n">
-        <v>48.92161560058594</v>
+        <v>46.35207366943359</v>
       </c>
       <c r="I15" t="n">
-        <v>974.5076904296875</v>
+        <v>972.9713745117188</v>
       </c>
       <c r="J15" t="n">
-        <v>68.95511627197266</v>
+        <v>73.40884399414062</v>
       </c>
     </row>
     <row r="16">
@@ -953,16 +953,16 @@
         <v>22.47631622738632</v>
       </c>
       <c r="G16" t="n">
-        <v>140.0260620117188</v>
+        <v>144.6133422851562</v>
       </c>
       <c r="H16" t="n">
-        <v>44.80427551269531</v>
+        <v>46.96025466918945</v>
       </c>
       <c r="I16" t="n">
-        <v>956.5651245117188</v>
+        <v>962.12353515625</v>
       </c>
       <c r="J16" t="n">
-        <v>66.15021514892578</v>
+        <v>70.64518737792969</v>
       </c>
     </row>
     <row r="17">
@@ -985,16 +985,16 @@
         <v>24.35763244318183</v>
       </c>
       <c r="G17" t="n">
-        <v>152.4513092041016</v>
+        <v>158.6017456054688</v>
       </c>
       <c r="H17" t="n">
-        <v>41.34523391723633</v>
+        <v>43.50258255004883</v>
       </c>
       <c r="I17" t="n">
-        <v>955.9923095703125</v>
+        <v>956.4457397460938</v>
       </c>
       <c r="J17" t="n">
-        <v>63.97245788574219</v>
+        <v>64.16091918945312</v>
       </c>
     </row>
     <row r="18">
@@ -1017,16 +1017,16 @@
         <v>25.62064236797445</v>
       </c>
       <c r="G18" t="n">
-        <v>180.507080078125</v>
+        <v>177.0597076416016</v>
       </c>
       <c r="H18" t="n">
-        <v>40.828369140625</v>
+        <v>43.80946731567383</v>
       </c>
       <c r="I18" t="n">
-        <v>940.6211547851562</v>
+        <v>939.74560546875</v>
       </c>
       <c r="J18" t="n">
-        <v>65.24543762207031</v>
+        <v>66.76328277587891</v>
       </c>
     </row>
     <row r="19">
@@ -1049,16 +1049,16 @@
         <v>25.92967709475499</v>
       </c>
       <c r="G19" t="n">
-        <v>231.5538330078125</v>
+        <v>225.5104217529297</v>
       </c>
       <c r="H19" t="n">
-        <v>45.09472274780273</v>
+        <v>61.89791488647461</v>
       </c>
       <c r="I19" t="n">
-        <v>922.3510131835938</v>
+        <v>926.7686157226562</v>
       </c>
       <c r="J19" t="n">
-        <v>69.71634674072266</v>
+        <v>75.56703186035156</v>
       </c>
     </row>
     <row r="20">
@@ -1081,16 +1081,16 @@
         <v>26.19588155013293</v>
       </c>
       <c r="G20" t="n">
-        <v>297.0267333984375</v>
+        <v>302.3383178710938</v>
       </c>
       <c r="H20" t="n">
-        <v>98.59128570556641</v>
+        <v>126.5255279541016</v>
       </c>
       <c r="I20" t="n">
-        <v>915.7635498046875</v>
+        <v>903.639404296875</v>
       </c>
       <c r="J20" t="n">
-        <v>70.7822265625</v>
+        <v>79.94386291503906</v>
       </c>
     </row>
     <row r="21">
@@ -1113,16 +1113,16 @@
         <v>25.87267490890685</v>
       </c>
       <c r="G21" t="n">
-        <v>502.5625</v>
+        <v>484.4425964355469</v>
       </c>
       <c r="H21" t="n">
-        <v>193.8975372314453</v>
+        <v>201.4697875976562</v>
       </c>
       <c r="I21" t="n">
-        <v>897.3269653320312</v>
+        <v>879.9146118164062</v>
       </c>
       <c r="J21" t="n">
-        <v>76.74246215820312</v>
+        <v>92.11599731445312</v>
       </c>
     </row>
     <row r="22">
@@ -1145,16 +1145,16 @@
         <v>24.64055238634836</v>
       </c>
       <c r="G22" t="n">
-        <v>725.0639038085938</v>
+        <v>695.6476440429688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.66106414794922</v>
+        <v>127.0970458984375</v>
       </c>
       <c r="I22" t="n">
-        <v>881.6226196289062</v>
+        <v>842.187744140625</v>
       </c>
       <c r="J22" t="n">
-        <v>92.06157684326172</v>
+        <v>118.6014709472656</v>
       </c>
     </row>
     <row r="23">
@@ -1177,16 +1177,16 @@
         <v>24.69862396067251</v>
       </c>
       <c r="G23" t="n">
-        <v>128.9230346679688</v>
+        <v>135.80029296875</v>
       </c>
       <c r="H23" t="n">
-        <v>51.02217102050781</v>
+        <v>51.90636825561523</v>
       </c>
       <c r="I23" t="n">
-        <v>247.9665069580078</v>
+        <v>241.9087982177734</v>
       </c>
       <c r="J23" t="n">
-        <v>96.12839508056641</v>
+        <v>96.66371917724609</v>
       </c>
     </row>
     <row r="24">
@@ -1209,16 +1209,16 @@
         <v>27.11629087610016</v>
       </c>
       <c r="G24" t="n">
-        <v>137.5961456298828</v>
+        <v>144.424072265625</v>
       </c>
       <c r="H24" t="n">
-        <v>47.98041534423828</v>
+        <v>48.17604064941406</v>
       </c>
       <c r="I24" t="n">
-        <v>471.9280700683594</v>
+        <v>438.6019897460938</v>
       </c>
       <c r="J24" t="n">
-        <v>196.1907501220703</v>
+        <v>183.2030639648438</v>
       </c>
     </row>
     <row r="25">
@@ -1241,16 +1241,16 @@
         <v>28.97995691733995</v>
       </c>
       <c r="G25" t="n">
-        <v>144.5551300048828</v>
+        <v>153.5196838378906</v>
       </c>
       <c r="H25" t="n">
-        <v>45.60982894897461</v>
+        <v>44.10543823242188</v>
       </c>
       <c r="I25" t="n">
-        <v>912.3119506835938</v>
+        <v>897.9586181640625</v>
       </c>
       <c r="J25" t="n">
-        <v>120.3387298583984</v>
+        <v>107.4607162475586</v>
       </c>
     </row>
     <row r="26">
@@ -1273,16 +1273,16 @@
         <v>30.34265377319738</v>
       </c>
       <c r="G26" t="n">
-        <v>155.4721832275391</v>
+        <v>163.6117248535156</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02301025390625</v>
+        <v>41.8122673034668</v>
       </c>
       <c r="I26" t="n">
-        <v>978.3142700195312</v>
+        <v>976.9983520507812</v>
       </c>
       <c r="J26" t="n">
-        <v>64.67820739746094</v>
+        <v>70.91751098632812</v>
       </c>
     </row>
     <row r="27">
@@ -1305,16 +1305,16 @@
         <v>31.86528713449996</v>
       </c>
       <c r="G27" t="n">
-        <v>172.3703460693359</v>
+        <v>177.8462982177734</v>
       </c>
       <c r="H27" t="n">
-        <v>38.79155349731445</v>
+        <v>38.51500701904297</v>
       </c>
       <c r="I27" t="n">
-        <v>969.6773071289062</v>
+        <v>970.1943969726562</v>
       </c>
       <c r="J27" t="n">
-        <v>65.5379638671875</v>
+        <v>66.17915344238281</v>
       </c>
     </row>
     <row r="28">
@@ -1337,16 +1337,16 @@
         <v>31.70139237157215</v>
       </c>
       <c r="G28" t="n">
-        <v>208.4193420410156</v>
+        <v>213.353515625</v>
       </c>
       <c r="H28" t="n">
-        <v>37.8207893371582</v>
+        <v>43.6988525390625</v>
       </c>
       <c r="I28" t="n">
-        <v>936.5975952148438</v>
+        <v>946.1578369140625</v>
       </c>
       <c r="J28" t="n">
-        <v>81.54008483886719</v>
+        <v>72.19952392578125</v>
       </c>
     </row>
     <row r="29">
@@ -1369,16 +1369,16 @@
         <v>31.7420363140709</v>
       </c>
       <c r="G29" t="n">
-        <v>269.5640869140625</v>
+        <v>275.903076171875</v>
       </c>
       <c r="H29" t="n">
-        <v>57.98722457885742</v>
+        <v>75.27573394775391</v>
       </c>
       <c r="I29" t="n">
-        <v>895.9625244140625</v>
+        <v>902.8106079101562</v>
       </c>
       <c r="J29" t="n">
-        <v>98.09022521972656</v>
+        <v>92.18555450439453</v>
       </c>
     </row>
     <row r="30">
@@ -1401,16 +1401,16 @@
         <v>30.76237588603813</v>
       </c>
       <c r="G30" t="n">
-        <v>511.19140625</v>
+        <v>466.1219177246094</v>
       </c>
       <c r="H30" t="n">
-        <v>174.3715515136719</v>
+        <v>178.1966247558594</v>
       </c>
       <c r="I30" t="n">
-        <v>845.653564453125</v>
+        <v>848.9883422851562</v>
       </c>
       <c r="J30" t="n">
-        <v>122.5155258178711</v>
+        <v>117.1403961181641</v>
       </c>
     </row>
     <row r="31">
@@ -1433,16 +1433,16 @@
         <v>29.73442789455431</v>
       </c>
       <c r="G31" t="n">
-        <v>718.4985961914062</v>
+        <v>697.0214233398438</v>
       </c>
       <c r="H31" t="n">
-        <v>88.54534149169922</v>
+        <v>92.41004180908203</v>
       </c>
       <c r="I31" t="n">
-        <v>813.004638671875</v>
+        <v>787.4052734375</v>
       </c>
       <c r="J31" t="n">
-        <v>153.936767578125</v>
+        <v>180.6876068115234</v>
       </c>
     </row>
     <row r="32">
@@ -1465,16 +1465,16 @@
         <v>30.37782838567884</v>
       </c>
       <c r="G32" t="n">
-        <v>128.7569274902344</v>
+        <v>133.3348999023438</v>
       </c>
       <c r="H32" t="n">
-        <v>52.56258010864258</v>
+        <v>51.92092895507812</v>
       </c>
       <c r="I32" t="n">
-        <v>156.4588623046875</v>
+        <v>141.9770660400391</v>
       </c>
       <c r="J32" t="n">
-        <v>58.89226531982422</v>
+        <v>59.87953567504883</v>
       </c>
     </row>
     <row r="33">
@@ -1497,16 +1497,16 @@
         <v>33.11659379389907</v>
       </c>
       <c r="G33" t="n">
-        <v>139.5130310058594</v>
+        <v>143.2712554931641</v>
       </c>
       <c r="H33" t="n">
-        <v>49.08113479614258</v>
+        <v>47.79478454589844</v>
       </c>
       <c r="I33" t="n">
-        <v>204.2436828613281</v>
+        <v>193.4806365966797</v>
       </c>
       <c r="J33" t="n">
-        <v>74.87886810302734</v>
+        <v>82.15825653076172</v>
       </c>
     </row>
     <row r="34">
@@ -1529,16 +1529,16 @@
         <v>35.40504769440309</v>
       </c>
       <c r="G34" t="n">
-        <v>150.4696044921875</v>
+        <v>157.2175750732422</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07528686523438</v>
+        <v>44.49493408203125</v>
       </c>
       <c r="I34" t="n">
-        <v>328.0673217773438</v>
+        <v>314.8018188476562</v>
       </c>
       <c r="J34" t="n">
-        <v>141.3209838867188</v>
+        <v>153.8073120117188</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>37.57764389518124</v>
       </c>
       <c r="G35" t="n">
-        <v>162.8455657958984</v>
+        <v>173.2916564941406</v>
       </c>
       <c r="H35" t="n">
-        <v>45.68459701538086</v>
+        <v>43.68595886230469</v>
       </c>
       <c r="I35" t="n">
-        <v>491.1571350097656</v>
+        <v>526.8106689453125</v>
       </c>
       <c r="J35" t="n">
-        <v>203.8354187011719</v>
+        <v>198.0554351806641</v>
       </c>
     </row>
     <row r="36">
@@ -1593,16 +1593,16 @@
         <v>38.09115608907656</v>
       </c>
       <c r="G36" t="n">
-        <v>180.9026489257812</v>
+        <v>191.6004486083984</v>
       </c>
       <c r="H36" t="n">
-        <v>40.85321044921875</v>
+        <v>39.43300247192383</v>
       </c>
       <c r="I36" t="n">
-        <v>796.85205078125</v>
+        <v>802.8055419921875</v>
       </c>
       <c r="J36" t="n">
-        <v>173.3792724609375</v>
+        <v>150.6242980957031</v>
       </c>
     </row>
     <row r="37">
@@ -1625,16 +1625,16 @@
         <v>38.33579750611559</v>
       </c>
       <c r="G37" t="n">
-        <v>205.2093200683594</v>
+        <v>213.9683990478516</v>
       </c>
       <c r="H37" t="n">
-        <v>38.80916213989258</v>
+        <v>36.22784805297852</v>
       </c>
       <c r="I37" t="n">
-        <v>813.334228515625</v>
+        <v>807.4246215820312</v>
       </c>
       <c r="J37" t="n">
-        <v>169.0858612060547</v>
+        <v>140.4315185546875</v>
       </c>
     </row>
     <row r="38">
@@ -1657,16 +1657,16 @@
         <v>37.89528654115976</v>
       </c>
       <c r="G38" t="n">
-        <v>267.7412719726562</v>
+        <v>272.8505859375</v>
       </c>
       <c r="H38" t="n">
-        <v>49.43296813964844</v>
+        <v>52.25247573852539</v>
       </c>
       <c r="I38" t="n">
-        <v>808.0119018554688</v>
+        <v>818.1425170898438</v>
       </c>
       <c r="J38" t="n">
-        <v>155.6524963378906</v>
+        <v>154.4414978027344</v>
       </c>
     </row>
     <row r="39">
@@ -1689,16 +1689,16 @@
         <v>37.04916938976096</v>
       </c>
       <c r="G39" t="n">
-        <v>472.9619140625</v>
+        <v>450.2463073730469</v>
       </c>
       <c r="H39" t="n">
-        <v>140.3533630371094</v>
+        <v>144.2139129638672</v>
       </c>
       <c r="I39" t="n">
-        <v>733.2145385742188</v>
+        <v>751.2308349609375</v>
       </c>
       <c r="J39" t="n">
-        <v>190.3522033691406</v>
+        <v>191.0722503662109</v>
       </c>
     </row>
     <row r="40">
@@ -1721,16 +1721,16 @@
         <v>35.00856026880581</v>
       </c>
       <c r="G40" t="n">
-        <v>700.4229125976562</v>
+        <v>684.3006591796875</v>
       </c>
       <c r="H40" t="n">
-        <v>83.21873474121094</v>
+        <v>80.45807647705078</v>
       </c>
       <c r="I40" t="n">
-        <v>707.7763671875</v>
+        <v>710.58154296875</v>
       </c>
       <c r="J40" t="n">
-        <v>222.1505432128906</v>
+        <v>218.8884887695312</v>
       </c>
     </row>
     <row r="41">
@@ -1753,16 +1753,16 @@
         <v>37.58863922492247</v>
       </c>
       <c r="G41" t="n">
-        <v>127.0261459350586</v>
+        <v>129.0152587890625</v>
       </c>
       <c r="H41" t="n">
-        <v>52.04383850097656</v>
+        <v>53.61013793945312</v>
       </c>
       <c r="I41" t="n">
-        <v>124.517822265625</v>
+        <v>106.7922744750977</v>
       </c>
       <c r="J41" t="n">
-        <v>48.59147644042969</v>
+        <v>45.04558563232422</v>
       </c>
     </row>
     <row r="42">
@@ -1785,16 +1785,16 @@
         <v>40.4685427958547</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3152008056641</v>
+        <v>141.2423248291016</v>
       </c>
       <c r="H42" t="n">
-        <v>50.06667327880859</v>
+        <v>49.63262176513672</v>
       </c>
       <c r="I42" t="n">
-        <v>145.0303955078125</v>
+        <v>129.2881317138672</v>
       </c>
       <c r="J42" t="n">
-        <v>50.3574333190918</v>
+        <v>52.53923797607422</v>
       </c>
     </row>
     <row r="43">
@@ -1817,16 +1817,16 @@
         <v>42.41365999634309</v>
       </c>
       <c r="G43" t="n">
-        <v>148.4360504150391</v>
+        <v>151.6752014160156</v>
       </c>
       <c r="H43" t="n">
-        <v>47.78042602539062</v>
+        <v>46.94818115234375</v>
       </c>
       <c r="I43" t="n">
-        <v>163.4047546386719</v>
+        <v>150.74609375</v>
       </c>
       <c r="J43" t="n">
-        <v>55.88798522949219</v>
+        <v>62.63845062255859</v>
       </c>
     </row>
     <row r="44">
@@ -1849,16 +1849,16 @@
         <v>44.05056700894834</v>
       </c>
       <c r="G44" t="n">
-        <v>160.0400848388672</v>
+        <v>165.700927734375</v>
       </c>
       <c r="H44" t="n">
-        <v>45.67971420288086</v>
+        <v>45.11236572265625</v>
       </c>
       <c r="I44" t="n">
-        <v>227.5861968994141</v>
+        <v>237.7664794921875</v>
       </c>
       <c r="J44" t="n">
-        <v>83.32616424560547</v>
+        <v>108.8067474365234</v>
       </c>
     </row>
     <row r="45">
@@ -1881,16 +1881,16 @@
         <v>45.28527361475503</v>
       </c>
       <c r="G45" t="n">
-        <v>170.7799224853516</v>
+        <v>181.2759704589844</v>
       </c>
       <c r="H45" t="n">
-        <v>43.59669876098633</v>
+        <v>40.63103103637695</v>
       </c>
       <c r="I45" t="n">
-        <v>281.2669372558594</v>
+        <v>296.9949951171875</v>
       </c>
       <c r="J45" t="n">
-        <v>115.7428359985352</v>
+        <v>147.7950286865234</v>
       </c>
     </row>
     <row r="46">
@@ -1913,16 +1913,16 @@
         <v>45.11415223222625</v>
       </c>
       <c r="G46" t="n">
-        <v>193.8733825683594</v>
+        <v>207.8882446289062</v>
       </c>
       <c r="H46" t="n">
-        <v>40.60866165161133</v>
+        <v>38.77446746826172</v>
       </c>
       <c r="I46" t="n">
-        <v>368.07763671875</v>
+        <v>382.1753845214844</v>
       </c>
       <c r="J46" t="n">
-        <v>149.9075317382812</v>
+        <v>139.9912719726562</v>
       </c>
     </row>
     <row r="47">
@@ -1945,16 +1945,16 @@
         <v>44.97584185956661</v>
       </c>
       <c r="G47" t="n">
-        <v>239.6978912353516</v>
+        <v>253.8854217529297</v>
       </c>
       <c r="H47" t="n">
-        <v>42.38800430297852</v>
+        <v>42.22163009643555</v>
       </c>
       <c r="I47" t="n">
-        <v>491.1933288574219</v>
+        <v>460.8810424804688</v>
       </c>
       <c r="J47" t="n">
-        <v>201.1798858642578</v>
+        <v>211.5670166015625</v>
       </c>
     </row>
     <row r="48">
@@ -1977,16 +1977,16 @@
         <v>42.0865253634753</v>
       </c>
       <c r="G48" t="n">
-        <v>446.0109252929688</v>
+        <v>436.3111572265625</v>
       </c>
       <c r="H48" t="n">
-        <v>125.8546829223633</v>
+        <v>117.7347869873047</v>
       </c>
       <c r="I48" t="n">
-        <v>561.0086059570312</v>
+        <v>556.5275268554688</v>
       </c>
       <c r="J48" t="n">
-        <v>216.37158203125</v>
+        <v>260.2729187011719</v>
       </c>
     </row>
     <row r="49">
@@ -2009,16 +2009,16 @@
         <v>40.81585186348995</v>
       </c>
       <c r="G49" t="n">
-        <v>676.1775512695312</v>
+        <v>644.6849975585938</v>
       </c>
       <c r="H49" t="n">
-        <v>82.66119384765625</v>
+        <v>95.50499725341797</v>
       </c>
       <c r="I49" t="n">
-        <v>574.5958862304688</v>
+        <v>577.5098876953125</v>
       </c>
       <c r="J49" t="n">
-        <v>240.9848022460938</v>
+        <v>251.4844207763672</v>
       </c>
     </row>
     <row r="50">
@@ -2041,16 +2041,16 @@
         <v>45.37200448015243</v>
       </c>
       <c r="G50" t="n">
-        <v>129.3703460693359</v>
+        <v>130.9426116943359</v>
       </c>
       <c r="H50" t="n">
-        <v>49.77278137207031</v>
+        <v>52.36981964111328</v>
       </c>
       <c r="I50" t="n">
-        <v>88.40480804443359</v>
+        <v>72.11103820800781</v>
       </c>
       <c r="J50" t="n">
-        <v>45.22811126708984</v>
+        <v>45.89780807495117</v>
       </c>
     </row>
     <row r="51">
@@ -2073,16 +2073,16 @@
         <v>48.78786662406539</v>
       </c>
       <c r="G51" t="n">
-        <v>140.7390441894531</v>
+        <v>142.0056610107422</v>
       </c>
       <c r="H51" t="n">
-        <v>50.95214462280273</v>
+        <v>50.01837158203125</v>
       </c>
       <c r="I51" t="n">
-        <v>101.3016738891602</v>
+        <v>86.33456420898438</v>
       </c>
       <c r="J51" t="n">
-        <v>46.99094009399414</v>
+        <v>46.89628982543945</v>
       </c>
     </row>
     <row r="52">
@@ -2105,16 +2105,16 @@
         <v>50.73675625671652</v>
       </c>
       <c r="G52" t="n">
-        <v>147.6301879882812</v>
+        <v>151.2962036132812</v>
       </c>
       <c r="H52" t="n">
-        <v>45.88452911376953</v>
+        <v>48.00667190551758</v>
       </c>
       <c r="I52" t="n">
-        <v>109.8020324707031</v>
+        <v>97.93488311767578</v>
       </c>
       <c r="J52" t="n">
-        <v>48.07241821289062</v>
+        <v>49.33027267456055</v>
       </c>
     </row>
     <row r="53">
@@ -2137,16 +2137,16 @@
         <v>51.96609868449762</v>
       </c>
       <c r="G53" t="n">
-        <v>159.2139129638672</v>
+        <v>166.7982482910156</v>
       </c>
       <c r="H53" t="n">
-        <v>47.16896438598633</v>
+        <v>47.36638641357422</v>
       </c>
       <c r="I53" t="n">
-        <v>131.8279571533203</v>
+        <v>126.9194107055664</v>
       </c>
       <c r="J53" t="n">
-        <v>51.34123992919922</v>
+        <v>59.41568374633789</v>
       </c>
     </row>
     <row r="54">
@@ -2169,16 +2169,16 @@
         <v>52.45736467440484</v>
       </c>
       <c r="G54" t="n">
-        <v>171.5960693359375</v>
+        <v>179.4427795410156</v>
       </c>
       <c r="H54" t="n">
-        <v>42.01537322998047</v>
+        <v>43.07497024536133</v>
       </c>
       <c r="I54" t="n">
-        <v>154.25634765625</v>
+        <v>153.7786254882812</v>
       </c>
       <c r="J54" t="n">
-        <v>50.00308609008789</v>
+        <v>59.31459426879883</v>
       </c>
     </row>
     <row r="55">
@@ -2201,16 +2201,16 @@
         <v>51.85220057025387</v>
       </c>
       <c r="G55" t="n">
-        <v>186.6658020019531</v>
+        <v>199.7009124755859</v>
       </c>
       <c r="H55" t="n">
-        <v>41.02386474609375</v>
+        <v>39.88875198364258</v>
       </c>
       <c r="I55" t="n">
-        <v>188.2378540039062</v>
+        <v>190.4671020507812</v>
       </c>
       <c r="J55" t="n">
-        <v>58.06173706054688</v>
+        <v>58.097412109375</v>
       </c>
     </row>
     <row r="56">
@@ -2233,16 +2233,16 @@
         <v>51.37276147532685</v>
       </c>
       <c r="G56" t="n">
-        <v>221.3967437744141</v>
+        <v>241.313720703125</v>
       </c>
       <c r="H56" t="n">
-        <v>42.63471603393555</v>
+        <v>44.86104583740234</v>
       </c>
       <c r="I56" t="n">
-        <v>208.5207366943359</v>
+        <v>204.5900726318359</v>
       </c>
       <c r="J56" t="n">
-        <v>76.83872985839844</v>
+        <v>75.79307556152344</v>
       </c>
     </row>
     <row r="57">
@@ -2265,16 +2265,16 @@
         <v>49.881475732815</v>
       </c>
       <c r="G57" t="n">
-        <v>324.4036865234375</v>
+        <v>371.0311584472656</v>
       </c>
       <c r="H57" t="n">
-        <v>82.08442687988281</v>
+        <v>107.6125564575195</v>
       </c>
       <c r="I57" t="n">
-        <v>283.4795532226562</v>
+        <v>288.3507690429688</v>
       </c>
       <c r="J57" t="n">
-        <v>131.5760345458984</v>
+        <v>169.3838958740234</v>
       </c>
     </row>
     <row r="58">
@@ -2297,16 +2297,16 @@
         <v>46.147295090649</v>
       </c>
       <c r="G58" t="n">
-        <v>645.9260864257812</v>
+        <v>617.8223876953125</v>
       </c>
       <c r="H58" t="n">
-        <v>80.24633026123047</v>
+        <v>94.34037780761719</v>
       </c>
       <c r="I58" t="n">
-        <v>368.6541748046875</v>
+        <v>372.8930969238281</v>
       </c>
       <c r="J58" t="n">
-        <v>211.4978790283203</v>
+        <v>231.8861999511719</v>
       </c>
     </row>
     <row r="59">
@@ -2329,16 +2329,16 @@
         <v>56.70921047332411</v>
       </c>
       <c r="G59" t="n">
-        <v>144.6875610351562</v>
+        <v>149.9632263183594</v>
       </c>
       <c r="H59" t="n">
-        <v>50.65611267089844</v>
+        <v>49.87351226806641</v>
       </c>
       <c r="I59" t="n">
-        <v>43.54855346679688</v>
+        <v>36.91277694702148</v>
       </c>
       <c r="J59" t="n">
-        <v>57.34926605224609</v>
+        <v>55.6201171875</v>
       </c>
     </row>
     <row r="60">
@@ -2361,16 +2361,16 @@
         <v>58.23723423416003</v>
       </c>
       <c r="G60" t="n">
-        <v>153.2918395996094</v>
+        <v>158.5070648193359</v>
       </c>
       <c r="H60" t="n">
-        <v>46.30680847167969</v>
+        <v>50.64443588256836</v>
       </c>
       <c r="I60" t="n">
-        <v>53.26616287231445</v>
+        <v>45.91592407226562</v>
       </c>
       <c r="J60" t="n">
-        <v>61.41652297973633</v>
+        <v>55.64604949951172</v>
       </c>
     </row>
     <row r="61">
@@ -2393,16 +2393,16 @@
         <v>59.34611390594659</v>
       </c>
       <c r="G61" t="n">
-        <v>160.1546936035156</v>
+        <v>166.4045715332031</v>
       </c>
       <c r="H61" t="n">
-        <v>45.77803802490234</v>
+        <v>47.19298934936523</v>
       </c>
       <c r="I61" t="n">
-        <v>71.50452423095703</v>
+        <v>59.80162811279297</v>
       </c>
       <c r="J61" t="n">
-        <v>58.26091003417969</v>
+        <v>58.12785339355469</v>
       </c>
     </row>
     <row r="62">
@@ -2425,16 +2425,16 @@
         <v>59.33493295870724</v>
       </c>
       <c r="G62" t="n">
-        <v>172.1907958984375</v>
+        <v>177.9447784423828</v>
       </c>
       <c r="H62" t="n">
-        <v>45.65518951416016</v>
+        <v>46.21673965454102</v>
       </c>
       <c r="I62" t="n">
-        <v>94.42042541503906</v>
+        <v>82.11543273925781</v>
       </c>
       <c r="J62" t="n">
-        <v>59.2895393371582</v>
+        <v>60.76541137695312</v>
       </c>
     </row>
     <row r="63">
@@ -2457,16 +2457,16 @@
         <v>58.39353789451046</v>
       </c>
       <c r="G63" t="n">
-        <v>183.6196136474609</v>
+        <v>196.5634002685547</v>
       </c>
       <c r="H63" t="n">
-        <v>44.03631591796875</v>
+        <v>42.94133377075195</v>
       </c>
       <c r="I63" t="n">
-        <v>123.0091247558594</v>
+        <v>109.1885070800781</v>
       </c>
       <c r="J63" t="n">
-        <v>55.50870513916016</v>
+        <v>54.69685363769531</v>
       </c>
     </row>
     <row r="64">
@@ -2489,16 +2489,16 @@
         <v>57.3323684814925</v>
       </c>
       <c r="G64" t="n">
-        <v>212.5873565673828</v>
+        <v>235.0810394287109</v>
       </c>
       <c r="H64" t="n">
-        <v>45.26724624633789</v>
+        <v>46.25088500976562</v>
       </c>
       <c r="I64" t="n">
-        <v>142.6219635009766</v>
+        <v>133.0704040527344</v>
       </c>
       <c r="J64" t="n">
-        <v>57.16556549072266</v>
+        <v>56.35438537597656</v>
       </c>
     </row>
     <row r="65">
@@ -2521,16 +2521,16 @@
         <v>54.83283250514894</v>
       </c>
       <c r="G65" t="n">
-        <v>310.9500122070312</v>
+        <v>386.4186706542969</v>
       </c>
       <c r="H65" t="n">
-        <v>90.02021789550781</v>
+        <v>124.3056869506836</v>
       </c>
       <c r="I65" t="n">
-        <v>181.1539611816406</v>
+        <v>170.037353515625</v>
       </c>
       <c r="J65" t="n">
-        <v>88.17197418212891</v>
+        <v>94.79294586181641</v>
       </c>
     </row>
     <row r="66">
@@ -2553,16 +2553,16 @@
         <v>66.18771861830042</v>
       </c>
       <c r="G66" t="n">
-        <v>162.7226257324219</v>
+        <v>173.5358428955078</v>
       </c>
       <c r="H66" t="n">
-        <v>46.31220245361328</v>
+        <v>45.92337036132812</v>
       </c>
       <c r="I66" t="n">
-        <v>-10.79350852966309</v>
+        <v>-25.61185073852539</v>
       </c>
       <c r="J66" t="n">
-        <v>70.05990600585938</v>
+        <v>67.17245483398438</v>
       </c>
     </row>
     <row r="67">
@@ -2585,16 +2585,16 @@
         <v>66.85471859160208</v>
       </c>
       <c r="G67" t="n">
-        <v>168.6781463623047</v>
+        <v>179.8137359619141</v>
       </c>
       <c r="H67" t="n">
-        <v>46.5438232421875</v>
+        <v>48.17974090576172</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02216542512178421</v>
+        <v>-15.49668502807617</v>
       </c>
       <c r="J67" t="n">
-        <v>72.05262756347656</v>
+        <v>70.77094268798828</v>
       </c>
     </row>
     <row r="68">
@@ -2617,16 +2617,16 @@
         <v>66.29608309198557</v>
       </c>
       <c r="G68" t="n">
-        <v>182.4476928710938</v>
+        <v>193.7220001220703</v>
       </c>
       <c r="H68" t="n">
-        <v>46.54099655151367</v>
+        <v>47.09123992919922</v>
       </c>
       <c r="I68" t="n">
-        <v>40.74599838256836</v>
+        <v>23.92398643493652</v>
       </c>
       <c r="J68" t="n">
-        <v>68.38726043701172</v>
+        <v>67.52377319335938</v>
       </c>
     </row>
     <row r="69">
@@ -2649,16 +2649,16 @@
         <v>65.32452373485688</v>
       </c>
       <c r="G69" t="n">
-        <v>191.3392791748047</v>
+        <v>206.0434265136719</v>
       </c>
       <c r="H69" t="n">
-        <v>45.45022583007812</v>
+        <v>45.81241607666016</v>
       </c>
       <c r="I69" t="n">
-        <v>70.60833740234375</v>
+        <v>52.32902526855469</v>
       </c>
       <c r="J69" t="n">
-        <v>65.65428924560547</v>
+        <v>66.13067626953125</v>
       </c>
     </row>
     <row r="70">
@@ -2681,16 +2681,16 @@
         <v>63.37031159981304</v>
       </c>
       <c r="G70" t="n">
-        <v>214.8196563720703</v>
+        <v>240.6586761474609</v>
       </c>
       <c r="H70" t="n">
-        <v>47.991455078125</v>
+        <v>53.73568725585938</v>
       </c>
       <c r="I70" t="n">
-        <v>108.260612487793</v>
+        <v>98.37865447998047</v>
       </c>
       <c r="J70" t="n">
-        <v>56.64131164550781</v>
+        <v>64.092529296875</v>
       </c>
     </row>
   </sheetData>

--- a/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu_Retrain.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal_Retrain/MultiTaskModel_NiCrMoTiFe_KW131_wt_pct_ML_mc_shared_relu_Retrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>H1_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>H1_new_pred_KFold_std</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_mean</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C2_new_pred_KFold_std</t>
         </is>
@@ -504,17 +509,22 @@
       <c r="F2" t="n">
         <v>14.31699359657089</v>
       </c>
-      <c r="G2" t="n">
-        <v>149.5930786132812</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>56.33085632324219</v>
+        <v>131.4450988769531</v>
       </c>
       <c r="I2" t="n">
-        <v>873.6610717773438</v>
+        <v>33.37041854858398</v>
       </c>
       <c r="J2" t="n">
-        <v>75.14371490478516</v>
+        <v>902.9497680664062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>57.65897750854492</v>
       </c>
     </row>
     <row r="3">
@@ -536,17 +546,22 @@
       <c r="F3" t="n">
         <v>15.27891067420843</v>
       </c>
-      <c r="G3" t="n">
-        <v>176.5021209716797</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>70.55750274658203</v>
+        <v>143.6378021240234</v>
       </c>
       <c r="I3" t="n">
-        <v>882.9088745117188</v>
+        <v>34.24795913696289</v>
       </c>
       <c r="J3" t="n">
-        <v>81.98526763916016</v>
+        <v>909.72509765625</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.32234191894531</v>
       </c>
     </row>
     <row r="4">
@@ -568,17 +583,22 @@
       <c r="F4" t="n">
         <v>15.85974020072816</v>
       </c>
-      <c r="G4" t="n">
-        <v>210.97509765625</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>104.9109344482422</v>
+        <v>161.8867797851562</v>
       </c>
       <c r="I4" t="n">
-        <v>892.2263793945312</v>
+        <v>37.93949127197266</v>
       </c>
       <c r="J4" t="n">
-        <v>76.70329284667969</v>
+        <v>910.193115234375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>59.3076171875</v>
       </c>
     </row>
     <row r="5">
@@ -600,17 +620,22 @@
       <c r="F5" t="n">
         <v>16.6254486072678</v>
       </c>
-      <c r="G5" t="n">
-        <v>268.4399108886719</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>139.1605834960938</v>
+        <v>179.5271148681641</v>
       </c>
       <c r="I5" t="n">
-        <v>891.141357421875</v>
+        <v>49.00255966186523</v>
       </c>
       <c r="J5" t="n">
-        <v>82.31859588623047</v>
+        <v>909.4883422851562</v>
+      </c>
+      <c r="K5" t="n">
+        <v>59.03374481201172</v>
       </c>
     </row>
     <row r="6">
@@ -632,17 +657,22 @@
       <c r="F6" t="n">
         <v>16.72168606967666</v>
       </c>
-      <c r="G6" t="n">
-        <v>363.893798828125</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H6" t="n">
-        <v>173.5213470458984</v>
+        <v>224.9136199951172</v>
       </c>
       <c r="I6" t="n">
-        <v>888.6866455078125</v>
+        <v>88.0513916015625</v>
       </c>
       <c r="J6" t="n">
-        <v>79.56737518310547</v>
+        <v>911.7642822265625</v>
+      </c>
+      <c r="K6" t="n">
+        <v>59.30270385742188</v>
       </c>
     </row>
     <row r="7">
@@ -664,17 +694,22 @@
       <c r="F7" t="n">
         <v>17.58023045110392</v>
       </c>
-      <c r="G7" t="n">
-        <v>133.1073913574219</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H7" t="n">
-        <v>48.33377075195312</v>
+        <v>124.595100402832</v>
       </c>
       <c r="I7" t="n">
-        <v>945.0126342773438</v>
+        <v>31.67668533325195</v>
       </c>
       <c r="J7" t="n">
-        <v>68.74794006347656</v>
+        <v>942.5830078125</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66.02677917480469</v>
       </c>
     </row>
     <row r="8">
@@ -696,17 +731,22 @@
       <c r="F8" t="n">
         <v>18.57818076528054</v>
       </c>
-      <c r="G8" t="n">
-        <v>145.4642944335938</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>48.9689826965332</v>
+        <v>128.6293792724609</v>
       </c>
       <c r="I8" t="n">
-        <v>923.2810668945312</v>
+        <v>31.24347114562988</v>
       </c>
       <c r="J8" t="n">
-        <v>67.59063720703125</v>
+        <v>931.0654296875</v>
+      </c>
+      <c r="K8" t="n">
+        <v>60.914794921875</v>
       </c>
     </row>
     <row r="9">
@@ -728,17 +768,22 @@
       <c r="F9" t="n">
         <v>19.60838259075554</v>
       </c>
-      <c r="G9" t="n">
-        <v>162.9749603271484</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H9" t="n">
-        <v>46.92147064208984</v>
+        <v>137.8370513916016</v>
       </c>
       <c r="I9" t="n">
-        <v>908.89990234375</v>
+        <v>31.26610565185547</v>
       </c>
       <c r="J9" t="n">
-        <v>66.92915344238281</v>
+        <v>917.8596801757812</v>
+      </c>
+      <c r="K9" t="n">
+        <v>60.34260940551758</v>
       </c>
     </row>
     <row r="10">
@@ -760,17 +805,22 @@
       <c r="F10" t="n">
         <v>20.10500298210745</v>
       </c>
-      <c r="G10" t="n">
-        <v>186.1508636474609</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H10" t="n">
-        <v>56.4958610534668</v>
+        <v>145.9089813232422</v>
       </c>
       <c r="I10" t="n">
-        <v>904.6777954101562</v>
+        <v>30.60981559753418</v>
       </c>
       <c r="J10" t="n">
-        <v>72.54798889160156</v>
+        <v>919.2327270507812</v>
+      </c>
+      <c r="K10" t="n">
+        <v>61.40322113037109</v>
       </c>
     </row>
     <row r="11">
@@ -792,17 +842,22 @@
       <c r="F11" t="n">
         <v>20.82282672295324</v>
       </c>
-      <c r="G11" t="n">
-        <v>243.0450286865234</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H11" t="n">
-        <v>102.2559509277344</v>
+        <v>164.9096374511719</v>
       </c>
       <c r="I11" t="n">
-        <v>902.6644897460938</v>
+        <v>35.18347549438477</v>
       </c>
       <c r="J11" t="n">
-        <v>73.96546936035156</v>
+        <v>916.84716796875</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57.78108215332031</v>
       </c>
     </row>
     <row r="12">
@@ -824,17 +879,22 @@
       <c r="F12" t="n">
         <v>21.05931589769223</v>
       </c>
-      <c r="G12" t="n">
-        <v>347.84423828125</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H12" t="n">
-        <v>170.3254699707031</v>
+        <v>203.0674438476562</v>
       </c>
       <c r="I12" t="n">
-        <v>893.6311645507812</v>
+        <v>58.12561416625977</v>
       </c>
       <c r="J12" t="n">
-        <v>77.63058471679688</v>
+        <v>912.8997802734375</v>
+      </c>
+      <c r="K12" t="n">
+        <v>60.80654525756836</v>
       </c>
     </row>
     <row r="13">
@@ -856,17 +916,22 @@
       <c r="F13" t="n">
         <v>21.38449445236935</v>
       </c>
-      <c r="G13" t="n">
-        <v>509.7666015625</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H13" t="n">
-        <v>201.9098968505859</v>
+        <v>363.7770690917969</v>
       </c>
       <c r="I13" t="n">
-        <v>881.2866821289062</v>
+        <v>165.6004333496094</v>
       </c>
       <c r="J13" t="n">
-        <v>84.60145568847656</v>
+        <v>906.928466796875</v>
+      </c>
+      <c r="K13" t="n">
+        <v>72.47628021240234</v>
       </c>
     </row>
     <row r="14">
@@ -888,17 +953,22 @@
       <c r="F14" t="n">
         <v>19.79697020692051</v>
       </c>
-      <c r="G14" t="n">
-        <v>135.0709533691406</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H14" t="n">
-        <v>50.45229721069336</v>
+        <v>111.1875152587891</v>
       </c>
       <c r="I14" t="n">
-        <v>687.2044677734375</v>
+        <v>34.48842620849609</v>
       </c>
       <c r="J14" t="n">
-        <v>200.2727203369141</v>
+        <v>688.0762939453125</v>
+      </c>
+      <c r="K14" t="n">
+        <v>199.8423919677734</v>
       </c>
     </row>
     <row r="15">
@@ -920,17 +990,22 @@
       <c r="F15" t="n">
         <v>21.48203443327129</v>
       </c>
-      <c r="G15" t="n">
-        <v>135.4882659912109</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H15" t="n">
-        <v>46.35207366943359</v>
+        <v>119.5882797241211</v>
       </c>
       <c r="I15" t="n">
-        <v>972.9713745117188</v>
+        <v>32.37935638427734</v>
       </c>
       <c r="J15" t="n">
-        <v>73.40884399414062</v>
+        <v>977.971435546875</v>
+      </c>
+      <c r="K15" t="n">
+        <v>67.79478454589844</v>
       </c>
     </row>
     <row r="16">
@@ -952,17 +1027,22 @@
       <c r="F16" t="n">
         <v>22.47631622738632</v>
       </c>
-      <c r="G16" t="n">
-        <v>144.6133422851562</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H16" t="n">
-        <v>46.96025466918945</v>
+        <v>134.1263732910156</v>
       </c>
       <c r="I16" t="n">
-        <v>962.12353515625</v>
+        <v>32.29815292358398</v>
       </c>
       <c r="J16" t="n">
-        <v>70.64518737792969</v>
+        <v>965.1311645507812</v>
+      </c>
+      <c r="K16" t="n">
+        <v>61.70938110351562</v>
       </c>
     </row>
     <row r="17">
@@ -984,17 +1064,22 @@
       <c r="F17" t="n">
         <v>24.35763244318183</v>
       </c>
-      <c r="G17" t="n">
-        <v>158.6017456054688</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H17" t="n">
-        <v>43.50258255004883</v>
+        <v>140.4138641357422</v>
       </c>
       <c r="I17" t="n">
-        <v>956.4457397460938</v>
+        <v>28.85903549194336</v>
       </c>
       <c r="J17" t="n">
-        <v>64.16091918945312</v>
+        <v>959.2284545898438</v>
+      </c>
+      <c r="K17" t="n">
+        <v>66.60528564453125</v>
       </c>
     </row>
     <row r="18">
@@ -1016,17 +1101,22 @@
       <c r="F18" t="n">
         <v>25.62064236797445</v>
       </c>
-      <c r="G18" t="n">
-        <v>177.0597076416016</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H18" t="n">
-        <v>43.80946731567383</v>
+        <v>148.7667388916016</v>
       </c>
       <c r="I18" t="n">
-        <v>939.74560546875</v>
+        <v>30.07821655273438</v>
       </c>
       <c r="J18" t="n">
-        <v>66.76328277587891</v>
+        <v>943.6507568359375</v>
+      </c>
+      <c r="K18" t="n">
+        <v>62.13877105712891</v>
       </c>
     </row>
     <row r="19">
@@ -1048,17 +1138,22 @@
       <c r="F19" t="n">
         <v>25.92967709475499</v>
       </c>
-      <c r="G19" t="n">
-        <v>225.5104217529297</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>61.89791488647461</v>
+        <v>166.5073547363281</v>
       </c>
       <c r="I19" t="n">
-        <v>926.7686157226562</v>
+        <v>29.97942161560059</v>
       </c>
       <c r="J19" t="n">
-        <v>75.56703186035156</v>
+        <v>934.8051147460938</v>
+      </c>
+      <c r="K19" t="n">
+        <v>60.754150390625</v>
       </c>
     </row>
     <row r="20">
@@ -1080,17 +1175,22 @@
       <c r="F20" t="n">
         <v>26.19588155013293</v>
       </c>
-      <c r="G20" t="n">
-        <v>302.3383178710938</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H20" t="n">
-        <v>126.5255279541016</v>
+        <v>197.1941833496094</v>
       </c>
       <c r="I20" t="n">
-        <v>903.639404296875</v>
+        <v>43.40626525878906</v>
       </c>
       <c r="J20" t="n">
-        <v>79.94386291503906</v>
+        <v>920.2560424804688</v>
+      </c>
+      <c r="K20" t="n">
+        <v>68.68769836425781</v>
       </c>
     </row>
     <row r="21">
@@ -1112,17 +1212,22 @@
       <c r="F21" t="n">
         <v>25.87267490890685</v>
       </c>
-      <c r="G21" t="n">
-        <v>484.4425964355469</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H21" t="n">
-        <v>201.4697875976562</v>
+        <v>355.5864868164062</v>
       </c>
       <c r="I21" t="n">
-        <v>879.9146118164062</v>
+        <v>150.1917114257812</v>
       </c>
       <c r="J21" t="n">
-        <v>92.11599731445312</v>
+        <v>910.0234375</v>
+      </c>
+      <c r="K21" t="n">
+        <v>71.33970642089844</v>
       </c>
     </row>
     <row r="22">
@@ -1144,17 +1249,22 @@
       <c r="F22" t="n">
         <v>24.64055238634836</v>
       </c>
-      <c r="G22" t="n">
-        <v>695.6476440429688</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H22" t="n">
-        <v>127.0970458984375</v>
+        <v>708.9288330078125</v>
       </c>
       <c r="I22" t="n">
-        <v>842.187744140625</v>
+        <v>107.1528015136719</v>
       </c>
       <c r="J22" t="n">
-        <v>118.6014709472656</v>
+        <v>895.5050048828125</v>
+      </c>
+      <c r="K22" t="n">
+        <v>96.80214691162109</v>
       </c>
     </row>
     <row r="23">
@@ -1176,17 +1286,22 @@
       <c r="F23" t="n">
         <v>24.69862396067251</v>
       </c>
-      <c r="G23" t="n">
-        <v>135.80029296875</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H23" t="n">
-        <v>51.90636825561523</v>
+        <v>108.3339614868164</v>
       </c>
       <c r="I23" t="n">
-        <v>241.9087982177734</v>
+        <v>35.39242553710938</v>
       </c>
       <c r="J23" t="n">
-        <v>96.66371917724609</v>
+        <v>242.2662200927734</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100.3135299682617</v>
       </c>
     </row>
     <row r="24">
@@ -1208,17 +1323,22 @@
       <c r="F24" t="n">
         <v>27.11629087610016</v>
       </c>
-      <c r="G24" t="n">
-        <v>144.424072265625</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H24" t="n">
-        <v>48.17604064941406</v>
+        <v>116.2420349121094</v>
       </c>
       <c r="I24" t="n">
-        <v>438.6019897460938</v>
+        <v>34.44919967651367</v>
       </c>
       <c r="J24" t="n">
-        <v>183.2030639648438</v>
+        <v>475.5818786621094</v>
+      </c>
+      <c r="K24" t="n">
+        <v>196.0778503417969</v>
       </c>
     </row>
     <row r="25">
@@ -1240,17 +1360,22 @@
       <c r="F25" t="n">
         <v>28.97995691733995</v>
       </c>
-      <c r="G25" t="n">
-        <v>153.5196838378906</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H25" t="n">
-        <v>44.10543823242188</v>
+        <v>125.8986740112305</v>
       </c>
       <c r="I25" t="n">
-        <v>897.9586181640625</v>
+        <v>33.26947784423828</v>
       </c>
       <c r="J25" t="n">
-        <v>107.4607162475586</v>
+        <v>893.1051025390625</v>
+      </c>
+      <c r="K25" t="n">
+        <v>129.7070617675781</v>
       </c>
     </row>
     <row r="26">
@@ -1272,17 +1397,22 @@
       <c r="F26" t="n">
         <v>30.34265377319738</v>
       </c>
-      <c r="G26" t="n">
-        <v>163.6117248535156</v>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H26" t="n">
-        <v>41.8122673034668</v>
+        <v>136.0005645751953</v>
       </c>
       <c r="I26" t="n">
-        <v>976.9983520507812</v>
+        <v>30.08364868164062</v>
       </c>
       <c r="J26" t="n">
-        <v>70.91751098632812</v>
+        <v>973.2262573242188</v>
+      </c>
+      <c r="K26" t="n">
+        <v>72.62006378173828</v>
       </c>
     </row>
     <row r="27">
@@ -1304,17 +1434,22 @@
       <c r="F27" t="n">
         <v>31.86528713449996</v>
       </c>
-      <c r="G27" t="n">
-        <v>177.8462982177734</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>38.51500701904297</v>
+        <v>149.7568206787109</v>
       </c>
       <c r="I27" t="n">
-        <v>970.1943969726562</v>
+        <v>29.47485733032227</v>
       </c>
       <c r="J27" t="n">
-        <v>66.17915344238281</v>
+        <v>965.9677124023438</v>
+      </c>
+      <c r="K27" t="n">
+        <v>66.59271240234375</v>
       </c>
     </row>
     <row r="28">
@@ -1336,17 +1471,22 @@
       <c r="F28" t="n">
         <v>31.70139237157215</v>
       </c>
-      <c r="G28" t="n">
-        <v>213.353515625</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H28" t="n">
-        <v>43.6988525390625</v>
+        <v>167.1848449707031</v>
       </c>
       <c r="I28" t="n">
-        <v>946.1578369140625</v>
+        <v>28.99174499511719</v>
       </c>
       <c r="J28" t="n">
-        <v>72.19952392578125</v>
+        <v>949.6422119140625</v>
+      </c>
+      <c r="K28" t="n">
+        <v>66.73880004882812</v>
       </c>
     </row>
     <row r="29">
@@ -1368,17 +1508,22 @@
       <c r="F29" t="n">
         <v>31.7420363140709</v>
       </c>
-      <c r="G29" t="n">
-        <v>275.903076171875</v>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H29" t="n">
-        <v>75.27573394775391</v>
+        <v>198.0080718994141</v>
       </c>
       <c r="I29" t="n">
-        <v>902.8106079101562</v>
+        <v>35.75408935546875</v>
       </c>
       <c r="J29" t="n">
-        <v>92.18555450439453</v>
+        <v>930.1039428710938</v>
+      </c>
+      <c r="K29" t="n">
+        <v>70.584228515625</v>
       </c>
     </row>
     <row r="30">
@@ -1400,17 +1545,22 @@
       <c r="F30" t="n">
         <v>30.76237588603813</v>
       </c>
-      <c r="G30" t="n">
-        <v>466.1219177246094</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H30" t="n">
-        <v>178.1966247558594</v>
+        <v>361.4710388183594</v>
       </c>
       <c r="I30" t="n">
-        <v>848.9883422851562</v>
+        <v>121.8988037109375</v>
       </c>
       <c r="J30" t="n">
-        <v>117.1403961181641</v>
+        <v>906.958984375</v>
+      </c>
+      <c r="K30" t="n">
+        <v>90.0325927734375</v>
       </c>
     </row>
     <row r="31">
@@ -1432,17 +1582,22 @@
       <c r="F31" t="n">
         <v>29.73442789455431</v>
       </c>
-      <c r="G31" t="n">
-        <v>697.0214233398438</v>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H31" t="n">
-        <v>92.41004180908203</v>
+        <v>701.2169799804688</v>
       </c>
       <c r="I31" t="n">
-        <v>787.4052734375</v>
+        <v>82.41529083251953</v>
       </c>
       <c r="J31" t="n">
-        <v>180.6876068115234</v>
+        <v>867.8224487304688</v>
+      </c>
+      <c r="K31" t="n">
+        <v>125.3511047363281</v>
       </c>
     </row>
     <row r="32">
@@ -1464,17 +1619,22 @@
       <c r="F32" t="n">
         <v>30.37782838567884</v>
       </c>
-      <c r="G32" t="n">
-        <v>133.3348999023438</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H32" t="n">
-        <v>51.92092895507812</v>
+        <v>104.7234573364258</v>
       </c>
       <c r="I32" t="n">
-        <v>141.9770660400391</v>
+        <v>35.83363723754883</v>
       </c>
       <c r="J32" t="n">
-        <v>59.87953567504883</v>
+        <v>133.1735992431641</v>
+      </c>
+      <c r="K32" t="n">
+        <v>51.905517578125</v>
       </c>
     </row>
     <row r="33">
@@ -1496,17 +1656,22 @@
       <c r="F33" t="n">
         <v>33.11659379389907</v>
       </c>
-      <c r="G33" t="n">
-        <v>143.2712554931641</v>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H33" t="n">
-        <v>47.79478454589844</v>
+        <v>113.1208190917969</v>
       </c>
       <c r="I33" t="n">
-        <v>193.4806365966797</v>
+        <v>33.42631149291992</v>
       </c>
       <c r="J33" t="n">
-        <v>82.15825653076172</v>
+        <v>184.5863800048828</v>
+      </c>
+      <c r="K33" t="n">
+        <v>77.28787994384766</v>
       </c>
     </row>
     <row r="34">
@@ -1528,17 +1693,22 @@
       <c r="F34" t="n">
         <v>35.40504769440309</v>
       </c>
-      <c r="G34" t="n">
-        <v>157.2175750732422</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H34" t="n">
-        <v>44.49493408203125</v>
+        <v>123.8122634887695</v>
       </c>
       <c r="I34" t="n">
-        <v>314.8018188476562</v>
+        <v>32.13447570800781</v>
       </c>
       <c r="J34" t="n">
-        <v>153.8073120117188</v>
+        <v>310.0645751953125</v>
+      </c>
+      <c r="K34" t="n">
+        <v>141.7906036376953</v>
       </c>
     </row>
     <row r="35">
@@ -1560,17 +1730,22 @@
       <c r="F35" t="n">
         <v>37.57764389518124</v>
       </c>
-      <c r="G35" t="n">
-        <v>173.2916564941406</v>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H35" t="n">
-        <v>43.68595886230469</v>
+        <v>133.7230529785156</v>
       </c>
       <c r="I35" t="n">
-        <v>526.8106689453125</v>
+        <v>31.53317451477051</v>
       </c>
       <c r="J35" t="n">
-        <v>198.0554351806641</v>
+        <v>485.614013671875</v>
+      </c>
+      <c r="K35" t="n">
+        <v>192.8735046386719</v>
       </c>
     </row>
     <row r="36">
@@ -1592,17 +1767,22 @@
       <c r="F36" t="n">
         <v>38.09115608907656</v>
       </c>
-      <c r="G36" t="n">
-        <v>191.6004486083984</v>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H36" t="n">
-        <v>39.43300247192383</v>
+        <v>148.3477020263672</v>
       </c>
       <c r="I36" t="n">
-        <v>802.8055419921875</v>
+        <v>29.52633666992188</v>
       </c>
       <c r="J36" t="n">
-        <v>150.6242980957031</v>
+        <v>770.6015014648438</v>
+      </c>
+      <c r="K36" t="n">
+        <v>156.2001037597656</v>
       </c>
     </row>
     <row r="37">
@@ -1624,17 +1804,22 @@
       <c r="F37" t="n">
         <v>38.33579750611559</v>
       </c>
-      <c r="G37" t="n">
-        <v>213.9683990478516</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H37" t="n">
-        <v>36.22784805297852</v>
+        <v>162.1926879882812</v>
       </c>
       <c r="I37" t="n">
-        <v>807.4246215820312</v>
+        <v>29.90833854675293</v>
       </c>
       <c r="J37" t="n">
-        <v>140.4315185546875</v>
+        <v>783.1380004882812</v>
+      </c>
+      <c r="K37" t="n">
+        <v>142.9443817138672</v>
       </c>
     </row>
     <row r="38">
@@ -1656,17 +1841,22 @@
       <c r="F38" t="n">
         <v>37.89528654115976</v>
       </c>
-      <c r="G38" t="n">
-        <v>272.8505859375</v>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H38" t="n">
-        <v>52.25247573852539</v>
+        <v>202.2861480712891</v>
       </c>
       <c r="I38" t="n">
-        <v>818.1425170898438</v>
+        <v>36.25930023193359</v>
       </c>
       <c r="J38" t="n">
-        <v>154.4414978027344</v>
+        <v>830.4871215820312</v>
+      </c>
+      <c r="K38" t="n">
+        <v>135.7189178466797</v>
       </c>
     </row>
     <row r="39">
@@ -1688,17 +1878,22 @@
       <c r="F39" t="n">
         <v>37.04916938976096</v>
       </c>
-      <c r="G39" t="n">
-        <v>450.2463073730469</v>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>144.2139129638672</v>
+        <v>355.0512084960938</v>
       </c>
       <c r="I39" t="n">
-        <v>751.2308349609375</v>
+        <v>108.9174270629883</v>
       </c>
       <c r="J39" t="n">
-        <v>191.0722503662109</v>
+        <v>808.605224609375</v>
+      </c>
+      <c r="K39" t="n">
+        <v>149.3153533935547</v>
       </c>
     </row>
     <row r="40">
@@ -1720,17 +1915,22 @@
       <c r="F40" t="n">
         <v>35.00856026880581</v>
       </c>
-      <c r="G40" t="n">
-        <v>684.3006591796875</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>80.45807647705078</v>
+        <v>666.6936645507812</v>
       </c>
       <c r="I40" t="n">
-        <v>710.58154296875</v>
+        <v>75.12361907958984</v>
       </c>
       <c r="J40" t="n">
-        <v>218.8884887695312</v>
+        <v>767.9506225585938</v>
+      </c>
+      <c r="K40" t="n">
+        <v>168.1067657470703</v>
       </c>
     </row>
     <row r="41">
@@ -1752,17 +1952,22 @@
       <c r="F41" t="n">
         <v>37.58863922492247</v>
       </c>
-      <c r="G41" t="n">
-        <v>129.0152587890625</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>53.61013793945312</v>
+        <v>102.830680847168</v>
       </c>
       <c r="I41" t="n">
-        <v>106.7922744750977</v>
+        <v>35.8842658996582</v>
       </c>
       <c r="J41" t="n">
-        <v>45.04558563232422</v>
+        <v>107.0648574829102</v>
+      </c>
+      <c r="K41" t="n">
+        <v>43.57193374633789</v>
       </c>
     </row>
     <row r="42">
@@ -1784,17 +1989,22 @@
       <c r="F42" t="n">
         <v>40.4685427958547</v>
       </c>
-      <c r="G42" t="n">
-        <v>141.2423248291016</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H42" t="n">
-        <v>49.63262176513672</v>
+        <v>110.0285034179688</v>
       </c>
       <c r="I42" t="n">
-        <v>129.2881317138672</v>
+        <v>35.18139266967773</v>
       </c>
       <c r="J42" t="n">
-        <v>52.53923797607422</v>
+        <v>127.4862899780273</v>
+      </c>
+      <c r="K42" t="n">
+        <v>49.09970092773438</v>
       </c>
     </row>
     <row r="43">
@@ -1816,17 +2026,22 @@
       <c r="F43" t="n">
         <v>42.41365999634309</v>
       </c>
-      <c r="G43" t="n">
-        <v>151.6752014160156</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H43" t="n">
-        <v>46.94818115234375</v>
+        <v>117.3676452636719</v>
       </c>
       <c r="I43" t="n">
-        <v>150.74609375</v>
+        <v>33.8106689453125</v>
       </c>
       <c r="J43" t="n">
-        <v>62.63845062255859</v>
+        <v>146.4247131347656</v>
+      </c>
+      <c r="K43" t="n">
+        <v>54.63056564331055</v>
       </c>
     </row>
     <row r="44">
@@ -1848,17 +2063,22 @@
       <c r="F44" t="n">
         <v>44.05056700894834</v>
       </c>
-      <c r="G44" t="n">
-        <v>165.700927734375</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>45.11236572265625</v>
+        <v>129.9901580810547</v>
       </c>
       <c r="I44" t="n">
-        <v>237.7664794921875</v>
+        <v>32.17512893676758</v>
       </c>
       <c r="J44" t="n">
-        <v>108.8067474365234</v>
+        <v>212.2597045898438</v>
+      </c>
+      <c r="K44" t="n">
+        <v>77.16774749755859</v>
       </c>
     </row>
     <row r="45">
@@ -1880,17 +2100,22 @@
       <c r="F45" t="n">
         <v>45.28527361475503</v>
       </c>
-      <c r="G45" t="n">
-        <v>181.2759704589844</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>40.63103103637695</v>
+        <v>139.9433135986328</v>
       </c>
       <c r="I45" t="n">
-        <v>296.9949951171875</v>
+        <v>31.87374114990234</v>
       </c>
       <c r="J45" t="n">
-        <v>147.7950286865234</v>
+        <v>255.4095611572266</v>
+      </c>
+      <c r="K45" t="n">
+        <v>95.58799743652344</v>
       </c>
     </row>
     <row r="46">
@@ -1912,17 +2137,22 @@
       <c r="F46" t="n">
         <v>45.11415223222625</v>
       </c>
-      <c r="G46" t="n">
-        <v>207.8882446289062</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H46" t="n">
-        <v>38.77446746826172</v>
+        <v>159.2474975585938</v>
       </c>
       <c r="I46" t="n">
-        <v>382.1753845214844</v>
+        <v>30.71707725524902</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9912719726562</v>
+        <v>353.5131530761719</v>
+      </c>
+      <c r="K46" t="n">
+        <v>140.6949157714844</v>
       </c>
     </row>
     <row r="47">
@@ -1944,17 +2174,22 @@
       <c r="F47" t="n">
         <v>44.97584185956661</v>
       </c>
-      <c r="G47" t="n">
-        <v>253.8854217529297</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H47" t="n">
-        <v>42.22163009643555</v>
+        <v>192.1589813232422</v>
       </c>
       <c r="I47" t="n">
-        <v>460.8810424804688</v>
+        <v>34.16308212280273</v>
       </c>
       <c r="J47" t="n">
-        <v>211.5670166015625</v>
+        <v>435.7006530761719</v>
+      </c>
+      <c r="K47" t="n">
+        <v>164.8425445556641</v>
       </c>
     </row>
     <row r="48">
@@ -1976,17 +2211,22 @@
       <c r="F48" t="n">
         <v>42.0865253634753</v>
       </c>
-      <c r="G48" t="n">
-        <v>436.3111572265625</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H48" t="n">
-        <v>117.7347869873047</v>
+        <v>357.7445983886719</v>
       </c>
       <c r="I48" t="n">
-        <v>556.5275268554688</v>
+        <v>119.4182052612305</v>
       </c>
       <c r="J48" t="n">
-        <v>260.2729187011719</v>
+        <v>572.5202026367188</v>
+      </c>
+      <c r="K48" t="n">
+        <v>186.0133819580078</v>
       </c>
     </row>
     <row r="49">
@@ -2008,17 +2248,22 @@
       <c r="F49" t="n">
         <v>40.81585186348995</v>
       </c>
-      <c r="G49" t="n">
-        <v>644.6849975585938</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>95.50499725341797</v>
+        <v>614.3049926757812</v>
       </c>
       <c r="I49" t="n">
-        <v>577.5098876953125</v>
+        <v>90.21884918212891</v>
       </c>
       <c r="J49" t="n">
-        <v>251.4844207763672</v>
+        <v>608.5196533203125</v>
+      </c>
+      <c r="K49" t="n">
+        <v>188.3069305419922</v>
       </c>
     </row>
     <row r="50">
@@ -2040,17 +2285,22 @@
       <c r="F50" t="n">
         <v>45.37200448015243</v>
       </c>
-      <c r="G50" t="n">
-        <v>130.9426116943359</v>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H50" t="n">
-        <v>52.36981964111328</v>
+        <v>105.0723648071289</v>
       </c>
       <c r="I50" t="n">
-        <v>72.11103820800781</v>
+        <v>35.9007453918457</v>
       </c>
       <c r="J50" t="n">
-        <v>45.89780807495117</v>
+        <v>75.73954772949219</v>
+      </c>
+      <c r="K50" t="n">
+        <v>47.25801467895508</v>
       </c>
     </row>
     <row r="51">
@@ -2072,17 +2322,22 @@
       <c r="F51" t="n">
         <v>48.78786662406539</v>
       </c>
-      <c r="G51" t="n">
-        <v>142.0056610107422</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H51" t="n">
-        <v>50.01837158203125</v>
+        <v>112.0014724731445</v>
       </c>
       <c r="I51" t="n">
-        <v>86.33456420898438</v>
+        <v>35.38492965698242</v>
       </c>
       <c r="J51" t="n">
-        <v>46.89628982543945</v>
+        <v>91.24223327636719</v>
+      </c>
+      <c r="K51" t="n">
+        <v>47.57194519042969</v>
       </c>
     </row>
     <row r="52">
@@ -2104,17 +2359,22 @@
       <c r="F52" t="n">
         <v>50.73675625671652</v>
       </c>
-      <c r="G52" t="n">
-        <v>151.2962036132812</v>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H52" t="n">
-        <v>48.00667190551758</v>
+        <v>115.7020034790039</v>
       </c>
       <c r="I52" t="n">
-        <v>97.93488311767578</v>
+        <v>33.40128707885742</v>
       </c>
       <c r="J52" t="n">
-        <v>49.33027267456055</v>
+        <v>99.36508178710938</v>
+      </c>
+      <c r="K52" t="n">
+        <v>51.78336715698242</v>
       </c>
     </row>
     <row r="53">
@@ -2136,17 +2396,22 @@
       <c r="F53" t="n">
         <v>51.96609868449762</v>
       </c>
-      <c r="G53" t="n">
-        <v>166.7982482910156</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H53" t="n">
-        <v>47.36638641357422</v>
+        <v>125.4619369506836</v>
       </c>
       <c r="I53" t="n">
-        <v>126.9194107055664</v>
+        <v>32.18272399902344</v>
       </c>
       <c r="J53" t="n">
-        <v>59.41568374633789</v>
+        <v>124.5151596069336</v>
+      </c>
+      <c r="K53" t="n">
+        <v>52.6592903137207</v>
       </c>
     </row>
     <row r="54">
@@ -2168,17 +2433,22 @@
       <c r="F54" t="n">
         <v>52.45736467440484</v>
       </c>
-      <c r="G54" t="n">
-        <v>179.4427795410156</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>43.07497024536133</v>
+        <v>141.1297912597656</v>
       </c>
       <c r="I54" t="n">
-        <v>153.7786254882812</v>
+        <v>32.68318939208984</v>
       </c>
       <c r="J54" t="n">
-        <v>59.31459426879883</v>
+        <v>148.8574066162109</v>
+      </c>
+      <c r="K54" t="n">
+        <v>55.06100082397461</v>
       </c>
     </row>
     <row r="55">
@@ -2200,17 +2470,22 @@
       <c r="F55" t="n">
         <v>51.85220057025387</v>
       </c>
-      <c r="G55" t="n">
-        <v>199.7009124755859</v>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>39.88875198364258</v>
+        <v>157.0539703369141</v>
       </c>
       <c r="I55" t="n">
-        <v>190.4671020507812</v>
+        <v>31.2880744934082</v>
       </c>
       <c r="J55" t="n">
-        <v>58.097412109375</v>
+        <v>182.6430053710938</v>
+      </c>
+      <c r="K55" t="n">
+        <v>55.31426620483398</v>
       </c>
     </row>
     <row r="56">
@@ -2232,17 +2507,22 @@
       <c r="F56" t="n">
         <v>51.37276147532685</v>
       </c>
-      <c r="G56" t="n">
-        <v>241.313720703125</v>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>44.86104583740234</v>
+        <v>184.5193786621094</v>
       </c>
       <c r="I56" t="n">
-        <v>204.5900726318359</v>
+        <v>31.16719055175781</v>
       </c>
       <c r="J56" t="n">
-        <v>75.79307556152344</v>
+        <v>196.2439117431641</v>
+      </c>
+      <c r="K56" t="n">
+        <v>56.9101676940918</v>
       </c>
     </row>
     <row r="57">
@@ -2264,17 +2544,22 @@
       <c r="F57" t="n">
         <v>49.881475732815</v>
       </c>
-      <c r="G57" t="n">
-        <v>371.0311584472656</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H57" t="n">
-        <v>107.6125564575195</v>
+        <v>288.8294677734375</v>
       </c>
       <c r="I57" t="n">
-        <v>288.3507690429688</v>
+        <v>103.77294921875</v>
       </c>
       <c r="J57" t="n">
-        <v>169.3838958740234</v>
+        <v>287.4369812011719</v>
+      </c>
+      <c r="K57" t="n">
+        <v>116.394889831543</v>
       </c>
     </row>
     <row r="58">
@@ -2296,17 +2581,22 @@
       <c r="F58" t="n">
         <v>46.147295090649</v>
       </c>
-      <c r="G58" t="n">
-        <v>617.8223876953125</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>94.34037780761719</v>
+        <v>603.8143920898438</v>
       </c>
       <c r="I58" t="n">
-        <v>372.8930969238281</v>
+        <v>96.18046569824219</v>
       </c>
       <c r="J58" t="n">
-        <v>231.8861999511719</v>
+        <v>395.9283447265625</v>
+      </c>
+      <c r="K58" t="n">
+        <v>191.7661895751953</v>
       </c>
     </row>
     <row r="59">
@@ -2328,17 +2618,22 @@
       <c r="F59" t="n">
         <v>56.70921047332411</v>
       </c>
-      <c r="G59" t="n">
-        <v>149.9632263183594</v>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>49.87351226806641</v>
+        <v>114.1263427734375</v>
       </c>
       <c r="I59" t="n">
-        <v>36.91277694702148</v>
+        <v>34.71360397338867</v>
       </c>
       <c r="J59" t="n">
-        <v>55.6201171875</v>
+        <v>46.89453125</v>
+      </c>
+      <c r="K59" t="n">
+        <v>57.29207229614258</v>
       </c>
     </row>
     <row r="60">
@@ -2360,17 +2655,22 @@
       <c r="F60" t="n">
         <v>58.23723423416003</v>
       </c>
-      <c r="G60" t="n">
-        <v>158.5070648193359</v>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>50.64443588256836</v>
+        <v>119.8752059936523</v>
       </c>
       <c r="I60" t="n">
-        <v>45.91592407226562</v>
+        <v>33.31992340087891</v>
       </c>
       <c r="J60" t="n">
-        <v>55.64604949951172</v>
+        <v>55.4229621887207</v>
+      </c>
+      <c r="K60" t="n">
+        <v>58.30461502075195</v>
       </c>
     </row>
     <row r="61">
@@ -2392,17 +2692,22 @@
       <c r="F61" t="n">
         <v>59.34611390594659</v>
       </c>
-      <c r="G61" t="n">
-        <v>166.4045715332031</v>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>47.19298934936523</v>
+        <v>127.9109878540039</v>
       </c>
       <c r="I61" t="n">
-        <v>59.80162811279297</v>
+        <v>33.84326553344727</v>
       </c>
       <c r="J61" t="n">
-        <v>58.12785339355469</v>
+        <v>74.30142211914062</v>
+      </c>
+      <c r="K61" t="n">
+        <v>63.67985153198242</v>
       </c>
     </row>
     <row r="62">
@@ -2424,17 +2729,22 @@
       <c r="F62" t="n">
         <v>59.33493295870724</v>
       </c>
-      <c r="G62" t="n">
-        <v>177.9447784423828</v>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H62" t="n">
-        <v>46.21673965454102</v>
+        <v>138.1000213623047</v>
       </c>
       <c r="I62" t="n">
-        <v>82.11543273925781</v>
+        <v>31.76586723327637</v>
       </c>
       <c r="J62" t="n">
-        <v>60.76541137695312</v>
+        <v>95.15087127685547</v>
+      </c>
+      <c r="K62" t="n">
+        <v>61.01631546020508</v>
       </c>
     </row>
     <row r="63">
@@ -2456,17 +2766,22 @@
       <c r="F63" t="n">
         <v>58.39353789451046</v>
       </c>
-      <c r="G63" t="n">
-        <v>196.5634002685547</v>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H63" t="n">
-        <v>42.94133377075195</v>
+        <v>150.67919921875</v>
       </c>
       <c r="I63" t="n">
-        <v>109.1885070800781</v>
+        <v>32.10624313354492</v>
       </c>
       <c r="J63" t="n">
-        <v>54.69685363769531</v>
+        <v>114.676872253418</v>
+      </c>
+      <c r="K63" t="n">
+        <v>56.35457229614258</v>
       </c>
     </row>
     <row r="64">
@@ -2488,17 +2803,22 @@
       <c r="F64" t="n">
         <v>57.3323684814925</v>
       </c>
-      <c r="G64" t="n">
-        <v>235.0810394287109</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H64" t="n">
-        <v>46.25088500976562</v>
+        <v>174.3896636962891</v>
       </c>
       <c r="I64" t="n">
-        <v>133.0704040527344</v>
+        <v>31.43704032897949</v>
       </c>
       <c r="J64" t="n">
-        <v>56.35438537597656</v>
+        <v>136.2124481201172</v>
+      </c>
+      <c r="K64" t="n">
+        <v>49.90427780151367</v>
       </c>
     </row>
     <row r="65">
@@ -2520,17 +2840,22 @@
       <c r="F65" t="n">
         <v>54.83283250514894</v>
       </c>
-      <c r="G65" t="n">
-        <v>386.4186706542969</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H65" t="n">
-        <v>124.3056869506836</v>
+        <v>291.6281433105469</v>
       </c>
       <c r="I65" t="n">
-        <v>170.037353515625</v>
+        <v>112.582633972168</v>
       </c>
       <c r="J65" t="n">
-        <v>94.79294586181641</v>
+        <v>187.1603698730469</v>
+      </c>
+      <c r="K65" t="n">
+        <v>80.80751037597656</v>
       </c>
     </row>
     <row r="66">
@@ -2552,17 +2877,22 @@
       <c r="F66" t="n">
         <v>66.18771861830042</v>
       </c>
-      <c r="G66" t="n">
-        <v>173.5358428955078</v>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>45.92337036132812</v>
+        <v>125.9518737792969</v>
       </c>
       <c r="I66" t="n">
-        <v>-25.61185073852539</v>
+        <v>34.56641387939453</v>
       </c>
       <c r="J66" t="n">
-        <v>67.17245483398438</v>
+        <v>0.9076570868492126</v>
+      </c>
+      <c r="K66" t="n">
+        <v>66.20799255371094</v>
       </c>
     </row>
     <row r="67">
@@ -2584,17 +2914,22 @@
       <c r="F67" t="n">
         <v>66.85471859160208</v>
       </c>
-      <c r="G67" t="n">
-        <v>179.8137359619141</v>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H67" t="n">
-        <v>48.17974090576172</v>
+        <v>132.16357421875</v>
       </c>
       <c r="I67" t="n">
-        <v>-15.49668502807617</v>
+        <v>33.57606506347656</v>
       </c>
       <c r="J67" t="n">
-        <v>70.77094268798828</v>
+        <v>13.38503265380859</v>
+      </c>
+      <c r="K67" t="n">
+        <v>67.09374237060547</v>
       </c>
     </row>
     <row r="68">
@@ -2616,17 +2951,22 @@
       <c r="F68" t="n">
         <v>66.29608309198557</v>
       </c>
-      <c r="G68" t="n">
-        <v>193.7220001220703</v>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>47.09123992919922</v>
+        <v>141.7956390380859</v>
       </c>
       <c r="I68" t="n">
-        <v>23.92398643493652</v>
+        <v>33.44116592407227</v>
       </c>
       <c r="J68" t="n">
-        <v>67.52377319335938</v>
+        <v>48.98664855957031</v>
+      </c>
+      <c r="K68" t="n">
+        <v>69.39118957519531</v>
       </c>
     </row>
     <row r="69">
@@ -2648,17 +2988,22 @@
       <c r="F69" t="n">
         <v>65.32452373485688</v>
       </c>
-      <c r="G69" t="n">
-        <v>206.0434265136719</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>45.81241607666016</v>
+        <v>151.3825836181641</v>
       </c>
       <c r="I69" t="n">
-        <v>52.32902526855469</v>
+        <v>32.66074371337891</v>
       </c>
       <c r="J69" t="n">
-        <v>66.13067626953125</v>
+        <v>64.20708465576172</v>
+      </c>
+      <c r="K69" t="n">
+        <v>65.73397827148438</v>
       </c>
     </row>
     <row r="70">
@@ -2680,17 +3025,22 @@
       <c r="F70" t="n">
         <v>63.37031159981304</v>
       </c>
-      <c r="G70" t="n">
-        <v>240.6586761474609</v>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>FCC</t>
+        </is>
       </c>
       <c r="H70" t="n">
-        <v>53.73568725585938</v>
+        <v>172.2140808105469</v>
       </c>
       <c r="I70" t="n">
-        <v>98.37865447998047</v>
+        <v>33.95781707763672</v>
       </c>
       <c r="J70" t="n">
-        <v>64.092529296875</v>
+        <v>100.5817947387695</v>
+      </c>
+      <c r="K70" t="n">
+        <v>58.46374130249023</v>
       </c>
     </row>
   </sheetData>
